--- a/experiment/nonconvex/MorganPatrone2006a/compare/C-Estacionario/MorganPatrone2006a_C-Estacionario.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/compare/C-Estacionario/MorganPatrone2006a_C-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-0.4268859341097936</v>
       </c>
       <c r="E2">
-        <v>0.0128883</v>
+        <v>0.0154908</v>
       </c>
       <c r="F2">
-        <v>0.019214</v>
+        <v>0.0386815</v>
       </c>
       <c r="G2">
-        <v>0.014184884045584045</v>
+        <v>0.025443517435897435</v>
       </c>
       <c r="H2">
         <v>2545</v>
